--- a/biology/Zoologie/Allantonematidae/Allantonematidae.xlsx
+++ b/biology/Zoologie/Allantonematidae/Allantonematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Allantonematidae sont une famille de nématodes parasites des insectes, appartenant à l'ordre des Tylenchida. Ces nématodes infectent une grande variété d'insectes, notamment des coléoptères, des papillons, des mouches, des thrips et des fourmis[1]. Le nématode Howardula aoronymphium (en), par exemple, parasite les drosophiles mycophages[2], Formicitylenchus oregonensis (en) parasite les fourmis charpentières[3] et Metaparasitylenchus hypothenemi (en) parasite un ravageur des grains de café, le Scolyte du caféier[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Allantonematidae sont une famille de nématodes parasites des insectes, appartenant à l'ordre des Tylenchida. Ces nématodes infectent une grande variété d'insectes, notamment des coléoptères, des papillons, des mouches, des thrips et des fourmis. Le nématode Howardula aoronymphium (en), par exemple, parasite les drosophiles mycophages, Formicitylenchus oregonensis (en) parasite les fourmis charpentières et Metaparasitylenchus hypothenemi (en) parasite un ravageur des grains de café, le Scolyte du caféier.
 Les Allantonematidae infectent les larves d'insectes en perçant leur cuticule, après quoi ils résident dans le sang de l'insecte. Là, ils traversent plusieurs stades juvéniles avant d'être rejetés par l'anus ou par les voies reproductives. L'accouplement se produit généralement à l'extérieur de l'insecte hôte, après quoi les nématodes femelles infectent de nouveaux hôtes.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Allantonematidae a été créée en 1931 par le nématologiste brésilien Clemente Pereira (d)[5].
-La systématique des Allantonematidae est compliquée en raison de diverses reclassifications des genres, classés d'abord par caractères morphologiques. Cette famille est donc probablement paraphylétique, comme en témoigne son étude moléculaire[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Allantonematidae a été créée en 1931 par le nématologiste brésilien Clemente Pereira (d).
+La systématique des Allantonematidae est compliquée en raison de diverses reclassifications des genres, classés d'abord par caractères morphologiques. Cette famille est donc probablement paraphylétique, comme en témoigne son étude moléculaire.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Allantonematidae comptent deux sous-familles, contenant environ 150 espèces dans au moins seize genres. Ceux-ci comprennent :
 Sous-famille des Allantonematinae Pereira, 1931
@@ -565,7 +581,7 @@
 genre Contortylenchus (en) Ruhm, 1956
 genre Formicitylenchus (en) Poinar, 2003
 Sous-famille non encore classée
-genre Halophilanema Poinar, 2012[7]</t>
+genre Halophilanema Poinar, 2012</t>
         </is>
       </c>
     </row>
